--- a/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF798C-1B6B-934D-9B5F-09123560F255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52535DF5-2B51-1041-B826-7DAF7EB30CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="460" windowWidth="16300" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,12 +516,12 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="3">
         <v>11584482</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/Table21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb144/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52535DF5-2B51-1041-B826-7DAF7EB30CED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B035A-D606-DA4E-9301-D5FDF30C54AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18000" yWindow="460" windowWidth="16300" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
   <si>
     <t>San Diego</t>
   </si>
@@ -58,21 +58,12 @@
     <t>Skipjack tuna</t>
   </si>
   <si>
-    <t>Altiarore</t>
-  </si>
-  <si>
-    <t>Hlucfin tuna</t>
-  </si>
-  <si>
     <t>Pacific bonito</t>
   </si>
   <si>
     <t>Abalone</t>
   </si>
   <si>
-    <t>White seal kiss</t>
-  </si>
-  <si>
     <t>California barracuda</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t xml:space="preserve">Shark </t>
   </si>
   <si>
-    <t>(irouper</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bigeye tuna </t>
   </si>
   <si>
@@ -121,15 +109,6 @@
     <t>SAN DIEGO AREA TOTALS</t>
   </si>
   <si>
-    <t>Spiny lolxstcr</t>
-  </si>
-  <si>
-    <t>Kockfish</t>
-  </si>
-  <si>
-    <t>Soil pin</t>
-  </si>
-  <si>
     <t>Landings</t>
   </si>
   <si>
@@ -137,6 +116,21 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Grouper</t>
+  </si>
+  <si>
+    <t>Sculpin</t>
+  </si>
+  <si>
+    <t>White seabass</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>Bluefin tuna</t>
   </si>
 </sst>
 </file>
@@ -516,7 +510,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -550,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -567,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -584,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3">
         <v>419904</v>
@@ -601,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>305066</v>
@@ -618,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>134231</v>
@@ -635,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>105830</v>
@@ -652,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3">
         <v>95397</v>
@@ -669,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3">
         <v>48866</v>
@@ -686,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>28374</v>
@@ -703,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3">
         <v>20886</v>
@@ -720,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>16332</v>
@@ -737,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>14366</v>
@@ -754,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>13554</v>
@@ -771,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>11674</v>
@@ -788,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D16" s="3">
         <v>9453</v>
@@ -805,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
         <v>5954</v>
@@ -822,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>5218</v>
       </c>
       <c r="E18" s="3">
-        <v>31819</v>
+        <v>31849</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -839,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>17339</v>
@@ -856,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>9159518</v>
@@ -870,7 +864,7 @@
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D21" s="6">
         <f>SUM(D2:D19)-D20</f>
@@ -878,7 +872,7 @@
       </c>
       <c r="E21" s="6">
         <f>SUM(E2:E19)-E20</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -886,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3">
         <v>1743882</v>
@@ -903,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -920,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>2395855</v>
@@ -936,7 +930,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6">
         <f>SUM(D22:D23)-D24</f>
@@ -952,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3">
         <v>11555373</v>
@@ -966,7 +960,7 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -976,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3">
         <v>13702</v>
@@ -993,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>13702</v>
@@ -1007,7 +1001,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1017,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3">
         <v>9331</v>
@@ -1034,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D32" s="3">
         <v>9331</v>
@@ -1048,7 +1042,7 @@
     </row>
     <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1058,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3">
         <v>6069</v>
@@ -1075,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3">
         <v>6069</v>
@@ -1089,7 +1083,7 @@
     </row>
     <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1099,10 +1093,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3">
         <v>7</v>
@@ -1116,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D38" s="3">
         <v>7</v>
@@ -1130,13 +1124,13 @@
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D39" s="3">
         <v>11584482</v>
